--- a/TVHS_Data_test/testPredict.xlsx
+++ b/TVHS_Data_test/testPredict.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +449,20 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -496,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -520,6 +534,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,38 +578,32 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$75:$L$75</c:f>
+              <c:f>Sheet6!$E$75:$L$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>346638.65546218486</c:v>
+                  <c:v>434453.78151260503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>422899.15966386552</c:v>
+                  <c:v>443697.47899159661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>434453.78151260503</c:v>
+                  <c:v>360504.2016806723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>443697.47899159661</c:v>
+                  <c:v>355882.35294117645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360504.2016806723</c:v>
+                  <c:v>231092.43697478992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>355882.35294117645</c:v>
+                  <c:v>291176.4705882353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>231092.43697478992</c:v>
+                  <c:v>291176.4705882353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>291176.4705882353</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>291176.4705882353</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>499159.66386554623</c:v>
                 </c:pt>
               </c:numCache>
@@ -609,38 +619,32 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$76:$L$76</c:f>
+              <c:f>Sheet6!$E$76:$L$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>346638.65546218486</c:v>
+                  <c:v>499159.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>422899.15966386552</c:v>
+                  <c:v>460000.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>499159.7</c:v>
+                  <c:v>462078.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>460000.6</c:v>
+                  <c:v>288708.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>462078.2</c:v>
+                  <c:v>353186.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>288708.2</c:v>
+                  <c:v>228396.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>353186.3</c:v>
+                  <c:v>283369.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>228396.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>283369.09999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>287763.20000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -656,38 +660,32 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$77:$L$77</c:f>
+              <c:f>Sheet6!$E$77:$L$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>346638.65546218486</c:v>
+                  <c:v>456022.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>422899.15966386552</c:v>
+                  <c:v>462184.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>456022.4</c:v>
+                  <c:v>467731.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>462184.9</c:v>
+                  <c:v>366666.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>467731.1</c:v>
+                  <c:v>360504.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>366666.7</c:v>
+                  <c:v>219537.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>360504.2</c:v>
+                  <c:v>287132.40000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>219537.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>287132.40000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>287581.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -703,38 +701,73 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$78:$L$78</c:f>
+              <c:f>Sheet6!$E$78:$L$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>322181.37254901964</c:v>
+                  <c:v>384768.90756302519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333735.99439775909</c:v>
+                  <c:v>428676.4705882353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>384768.90756302519</c:v>
+                  <c:v>439075.63025210082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>428676.4705882353</c:v>
+                  <c:v>402100.84033613442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>439075.63025210082</c:v>
+                  <c:v>358193.27731092437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402100.84033613442</c:v>
+                  <c:v>293487.39495798317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>358193.27731092437</c:v>
+                  <c:v>261134.45378151262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>293487.39495798317</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>261134.45378151262</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                  <c:v>291176.4705882353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$79:$L$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>422899.15966386552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434453.78151260503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>443697.47899159661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360504.2016806723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>355882.35294117645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231092.43697478992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>291176.4705882353</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>291176.4705882353</c:v>
                 </c:pt>
               </c:numCache>
@@ -752,11 +785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188572800"/>
-        <c:axId val="188580608"/>
+        <c:axId val="174917504"/>
+        <c:axId val="174919040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188572800"/>
+        <c:axId val="174917504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188580608"/>
+        <c:crossAx val="174919040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188580608"/>
+        <c:axId val="174919040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188572800"/>
+        <c:crossAx val="174917504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1024,11 +1057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52252032"/>
-        <c:axId val="52376704"/>
+        <c:axId val="174974464"/>
+        <c:axId val="174976000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52252032"/>
+        <c:axId val="174974464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52376704"/>
+        <c:crossAx val="174976000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52376704"/>
+        <c:axId val="174976000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52252032"/>
+        <c:crossAx val="174974464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1296,11 +1329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188581376"/>
-        <c:axId val="188582912"/>
+        <c:axId val="175663744"/>
+        <c:axId val="175681920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188581376"/>
+        <c:axId val="175663744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188582912"/>
+        <c:crossAx val="175681920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188582912"/>
+        <c:axId val="175681920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188581376"/>
+        <c:crossAx val="175663744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5235,15 +5268,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W144"/>
+  <dimension ref="A1:W188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D115" workbookViewId="0">
-      <selection activeCell="W137" sqref="W137"/>
+    <sheetView tabSelected="1" topLeftCell="E160" workbookViewId="0">
+      <selection activeCell="P181" sqref="P181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -6599,6 +6633,32 @@
         <v>291176.4705882353</v>
       </c>
     </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E79" s="13">
+        <v>422899.15966386552</v>
+      </c>
+      <c r="F79" s="13">
+        <v>434453.78151260503</v>
+      </c>
+      <c r="G79" s="13">
+        <v>443697.47899159661</v>
+      </c>
+      <c r="H79" s="13">
+        <v>360504.2016806723</v>
+      </c>
+      <c r="I79" s="13">
+        <v>355882.35294117645</v>
+      </c>
+      <c r="J79" s="13">
+        <v>231092.43697478992</v>
+      </c>
+      <c r="K79" s="13">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="L79" s="13">
+        <v>291176.4705882353</v>
+      </c>
+    </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>442156.86274509801</v>
@@ -6915,6 +6975,35 @@
         <v>296883.75350140058</v>
       </c>
     </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D92" s="14">
+        <v>439971.98879551823</v>
+      </c>
+      <c r="E92" s="14">
+        <v>373781.51260504202</v>
+      </c>
+      <c r="F92" s="14">
+        <v>401036.41456582636</v>
+      </c>
+      <c r="G92" s="14">
+        <v>473934.42622950819</v>
+      </c>
+      <c r="H92" s="14">
+        <v>396557.37704918033</v>
+      </c>
+      <c r="I92" s="14">
+        <v>495130.71895424835</v>
+      </c>
+      <c r="J92" s="14">
+        <v>423252.59515570936</v>
+      </c>
+      <c r="K92" s="14">
+        <v>313431.37254901958</v>
+      </c>
+      <c r="L92" s="14">
+        <v>280336.13445378153</v>
+      </c>
+    </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>346638.65546218486</v>
@@ -6926,7 +7015,7 @@
         <v>346638.65546218486</v>
       </c>
       <c r="D111">
-        <f>(A109+A110)/2</f>
+        <f t="shared" ref="D111:D120" si="3">(A109+A110)/2</f>
         <v>0</v>
       </c>
       <c r="H111">
@@ -6971,7 +7060,7 @@
         <v>422899.15966386552</v>
       </c>
       <c r="D112">
-        <f>(A110+A111)/2</f>
+        <f t="shared" si="3"/>
         <v>173319.32773109243</v>
       </c>
       <c r="H112">
@@ -7016,7 +7105,7 @@
         <v>456022.4</v>
       </c>
       <c r="D113">
-        <f>(A111+A112)/2</f>
+        <f t="shared" si="3"/>
         <v>384768.90756302519</v>
       </c>
       <c r="H113">
@@ -7061,7 +7150,7 @@
         <v>462184.9</v>
       </c>
       <c r="D114">
-        <f>(A112+A113)/2</f>
+        <f t="shared" si="3"/>
         <v>428676.4705882353</v>
       </c>
       <c r="H114">
@@ -7106,7 +7195,7 @@
         <v>467731.1</v>
       </c>
       <c r="D115">
-        <f>(A113+A114)/2</f>
+        <f t="shared" si="3"/>
         <v>439075.63025210082</v>
       </c>
     </row>
@@ -7121,7 +7210,7 @@
         <v>366666.7</v>
       </c>
       <c r="D116">
-        <f>(A114+A115)/2</f>
+        <f t="shared" si="3"/>
         <v>402100.84033613442</v>
       </c>
     </row>
@@ -7136,7 +7225,7 @@
         <v>360504.2</v>
       </c>
       <c r="D117">
-        <f>(A115+A116)/2</f>
+        <f t="shared" si="3"/>
         <v>358193.27731092437</v>
       </c>
     </row>
@@ -7151,7 +7240,7 @@
         <v>219537.8</v>
       </c>
       <c r="D118">
-        <f>(A116+A117)/2</f>
+        <f t="shared" si="3"/>
         <v>293487.39495798317</v>
       </c>
     </row>
@@ -7166,7 +7255,7 @@
         <v>287132.40000000002</v>
       </c>
       <c r="D119">
-        <f>(A117+A118)/2</f>
+        <f t="shared" si="3"/>
         <v>261134.45378151262</v>
       </c>
     </row>
@@ -7181,7 +7270,7 @@
         <v>287581.7</v>
       </c>
       <c r="D120">
-        <f>(A118+A119)/2</f>
+        <f t="shared" si="3"/>
         <v>291176.4705882353</v>
       </c>
       <c r="G120">
@@ -7200,7 +7289,7 @@
         <v>384768.90756302519</v>
       </c>
       <c r="M120">
-        <f t="shared" ref="M120:M127" si="3">I120-H120</f>
+        <f t="shared" ref="M120:M127" si="4">I120-H120</f>
         <v>64705.918487394985</v>
       </c>
       <c r="N120">
@@ -7253,27 +7342,27 @@
         <v>428676.4705882353</v>
       </c>
       <c r="M121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16303.121008403366</v>
       </c>
       <c r="N121">
-        <f t="shared" ref="N121:N127" si="4">M121*M121</f>
+        <f t="shared" ref="N121:N127" si="5">M121*M121</f>
         <v>265791754.61464319</v>
       </c>
       <c r="Q121">
-        <f t="shared" ref="Q121:Q127" si="5">J121-H121</f>
+        <f t="shared" ref="Q121:Q127" si="6">J121-H121</f>
         <v>18487.421008403413</v>
       </c>
       <c r="R121">
-        <f t="shared" ref="R121:R127" si="6">Q121*Q121</f>
+        <f t="shared" ref="R121:R127" si="7">Q121*Q121</f>
         <v>341784735.54195589</v>
       </c>
       <c r="U121">
-        <f t="shared" ref="U121:U127" si="7">K121-H121</f>
+        <f t="shared" ref="U121:U127" si="8">K121-H121</f>
         <v>-15021.008403361309</v>
       </c>
       <c r="V121">
-        <f t="shared" ref="V121:V127" si="8">U121*U121</f>
+        <f t="shared" ref="V121:V127" si="9">U121*U121</f>
         <v>225630693.45385107</v>
       </c>
     </row>
@@ -7294,27 +7383,27 @@
         <v>439075.63025210082</v>
       </c>
       <c r="M122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101573.99831932771</v>
       </c>
       <c r="N122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10317277134.574789</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>107226.89831932768</v>
       </c>
       <c r="R122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11497607723.183437</v>
       </c>
       <c r="U122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78571.428571428522</v>
       </c>
       <c r="V122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6173469387.7550945</v>
       </c>
     </row>
@@ -7335,27 +7424,27 @@
         <v>402100.84033613442</v>
       </c>
       <c r="M123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-67174.152941176435</v>
       </c>
       <c r="N123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4512366823.364563</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10784.347058823565</v>
       </c>
       <c r="R123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116302141.48515648</v>
       </c>
       <c r="U123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46218.487394957978</v>
       </c>
       <c r="V123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2136148577.0778894</v>
       </c>
     </row>
@@ -7376,27 +7465,27 @@
         <v>358193.27731092437</v>
       </c>
       <c r="M124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122093.86302521007</v>
       </c>
       <c r="N124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14906911388.418758</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>129411.76302521009</v>
       </c>
       <c r="R124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16747404409.293135</v>
       </c>
       <c r="U124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127100.84033613445</v>
       </c>
       <c r="V124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16154623614.151543</v>
       </c>
     </row>
@@ -7417,27 +7506,27 @@
         <v>293487.39495798317</v>
       </c>
       <c r="M125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-62780.070588235307</v>
       </c>
       <c r="N125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3941337263.063808</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-71638.670588235313</v>
       </c>
       <c r="R125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5132099123.6496916</v>
       </c>
       <c r="U125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2310.9243697478669</v>
       </c>
       <c r="V125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5340371.4426945755</v>
       </c>
     </row>
@@ -7458,27 +7547,27 @@
         <v>261134.45378151262</v>
       </c>
       <c r="M126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7807.3705882353242</v>
       </c>
       <c r="N126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60955035.502041996</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4044.0705882352777</v>
       </c>
       <c r="R126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16354506.922629625</v>
       </c>
       <c r="U126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-30042.016806722677</v>
       </c>
       <c r="V126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>902522773.81540775</v>
       </c>
     </row>
@@ -7499,27 +7588,27 @@
         <v>291176.4705882353</v>
       </c>
       <c r="M127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-211396.46386554622</v>
       </c>
       <c r="N127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44688464934.857185</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-211577.96386554622</v>
       </c>
       <c r="R127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44765234793.490379</v>
       </c>
       <c r="U127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-207983.19327731093</v>
       </c>
       <c r="V127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43257008685.827271</v>
       </c>
     </row>
@@ -7694,27 +7783,27 @@
         <v>387408.96358543419</v>
       </c>
       <c r="M138">
-        <f t="shared" ref="M138:M144" si="9">I138-H138</f>
+        <f t="shared" ref="M138:M144" si="10">I138-H138</f>
         <v>26326.973770491837</v>
       </c>
       <c r="N138">
-        <f t="shared" ref="N138:N144" si="10">M138*M138</f>
+        <f t="shared" ref="N138:N144" si="11">M138*M138</f>
         <v>693109547.91216516</v>
       </c>
       <c r="Q138">
-        <f t="shared" ref="Q138:Q144" si="11">J138-H138</f>
+        <f t="shared" ref="Q138:Q144" si="12">J138-H138</f>
         <v>-52034.32622950821</v>
       </c>
       <c r="R138">
-        <f t="shared" ref="R138:R144" si="12">Q138*Q138</f>
+        <f t="shared" ref="R138:R144" si="13">Q138*Q138</f>
         <v>2707571106.158886</v>
       </c>
       <c r="U138">
-        <f t="shared" ref="U138:U144" si="13">K138-H138</f>
+        <f t="shared" ref="U138:U144" si="14">K138-H138</f>
         <v>-86525.462644073996</v>
       </c>
       <c r="V138">
-        <f t="shared" ref="V138:V144" si="14">U138*U138</f>
+        <f t="shared" ref="V138:V144" si="15">U138*U138</f>
         <v>7486655685.7710447</v>
       </c>
     </row>
@@ -7732,27 +7821,27 @@
         <v>437485.42039766727</v>
       </c>
       <c r="M139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>140240.02295081969</v>
       </c>
       <c r="N139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19667264037.246433</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>108647.62295081967</v>
       </c>
       <c r="R139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11804305972.863478</v>
       </c>
       <c r="U139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40928.043348486943</v>
       </c>
       <c r="V139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1675104732.3356264</v>
       </c>
     </row>
@@ -7770,27 +7859,27 @@
         <v>435245.90163934429</v>
       </c>
       <c r="M140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-54169.618954248377</v>
       </c>
       <c r="N140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2934347617.6484652</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-85410.718954248354</v>
       </c>
       <c r="R140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7294990912.281599</v>
       </c>
       <c r="U140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-59884.817314904067</v>
       </c>
       <c r="V140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3586191344.8394341</v>
       </c>
     </row>
@@ -7808,27 +7897,27 @@
         <v>445844.04800171434</v>
       </c>
       <c r="M141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52313.404844290635</v>
       </c>
       <c r="N141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2736692326.4026508</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>97242.304844290658</v>
       </c>
       <c r="R141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9456065851.4299545</v>
       </c>
       <c r="U141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22591.452846004977</v>
       </c>
       <c r="V141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>510373741.69326639</v>
       </c>
     </row>
@@ -7846,27 +7935,27 @@
         <v>459191.65705497889</v>
       </c>
       <c r="M142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>138552.52745098044</v>
       </c>
       <c r="N142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19196802863.054691</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>123030.12745098042</v>
       </c>
       <c r="R142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15136412260.604486</v>
       </c>
       <c r="U142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>145760.28450595931</v>
       </c>
       <c r="V142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21246060539.258202</v>
       </c>
     </row>
@@ -7884,27 +7973,27 @@
         <v>368341.98385236447</v>
       </c>
       <c r="M143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85037.965546218446</v>
       </c>
       <c r="N143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7231455584.2398357</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32634.06554621848</v>
       </c>
       <c r="R143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1064982234.0748841</v>
       </c>
       <c r="U143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>88005.849398582941</v>
       </c>
       <c r="V143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7745029528.3660612</v>
       </c>
     </row>
@@ -7922,28 +8011,696 @@
         <v>296883.75350140058</v>
       </c>
       <c r="M144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-53662.001960784342</v>
       </c>
       <c r="N144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2879610454.4392228</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-28643.30196078436</v>
       </c>
       <c r="R144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>820438747.21667314</v>
       </c>
       <c r="U144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8371.1484593837522</v>
       </c>
       <c r="V144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>70076126.529042974</v>
+      </c>
+    </row>
+    <row r="154" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>434453.78151260503</v>
+      </c>
+      <c r="F154">
+        <v>443697.47899159661</v>
+      </c>
+      <c r="G154">
+        <v>360504.2016806723</v>
+      </c>
+      <c r="H154">
+        <v>355882.35294117645</v>
+      </c>
+      <c r="I154">
+        <v>231092.43697478992</v>
+      </c>
+      <c r="J154">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="K154">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="L154">
+        <v>499159.66386554623</v>
+      </c>
+    </row>
+    <row r="155" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>499159.7</v>
+      </c>
+      <c r="F155">
+        <v>460000.6</v>
+      </c>
+      <c r="G155">
+        <v>462078.2</v>
+      </c>
+      <c r="H155">
+        <v>288708.2</v>
+      </c>
+      <c r="I155">
+        <v>353186.3</v>
+      </c>
+      <c r="J155">
+        <v>228396.4</v>
+      </c>
+      <c r="K155">
+        <v>283369.09999999998</v>
+      </c>
+      <c r="L155">
+        <v>287763.20000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>456022.4</v>
+      </c>
+      <c r="F156">
+        <v>462184.9</v>
+      </c>
+      <c r="G156">
+        <v>467731.1</v>
+      </c>
+      <c r="H156">
+        <v>366666.7</v>
+      </c>
+      <c r="I156">
+        <v>360504.2</v>
+      </c>
+      <c r="J156">
+        <v>219537.8</v>
+      </c>
+      <c r="K156">
+        <v>287132.40000000002</v>
+      </c>
+      <c r="L156">
+        <v>287581.7</v>
+      </c>
+    </row>
+    <row r="157" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>384768.90756302519</v>
+      </c>
+      <c r="F157">
+        <v>428676.4705882353</v>
+      </c>
+      <c r="G157">
+        <v>439075.63025210082</v>
+      </c>
+      <c r="H157">
+        <v>402100.84033613442</v>
+      </c>
+      <c r="I157">
+        <v>358193.27731092437</v>
+      </c>
+      <c r="J157">
+        <v>293487.39495798317</v>
+      </c>
+      <c r="K157">
+        <v>261134.45378151262</v>
+      </c>
+      <c r="L157">
+        <v>291176.4705882353</v>
+      </c>
+    </row>
+    <row r="158" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>422899.15966386552</v>
+      </c>
+      <c r="F158">
+        <v>434453.78151260503</v>
+      </c>
+      <c r="G158">
+        <v>443697.47899159661</v>
+      </c>
+      <c r="H158">
+        <v>360504.2016806723</v>
+      </c>
+      <c r="I158">
+        <v>355882.35294117645</v>
+      </c>
+      <c r="J158">
+        <v>231092.43697478992</v>
+      </c>
+      <c r="K158">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="L158">
+        <v>291176.4705882353</v>
+      </c>
+    </row>
+    <row r="162" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>434453.78151260503</v>
+      </c>
+      <c r="I162">
+        <v>499159.7</v>
+      </c>
+      <c r="J162">
+        <v>456022.4</v>
+      </c>
+      <c r="K162">
+        <v>384768.90756302519</v>
+      </c>
+      <c r="L162">
+        <v>422899.15966386552</v>
+      </c>
+      <c r="N162">
+        <f>L162-H162</f>
+        <v>-11554.621848739509</v>
+      </c>
+      <c r="O162">
+        <f>N162*N162</f>
+        <v>133509286.06736843</v>
+      </c>
+      <c r="P162">
+        <f>SQRT(SUM(O162:O169)/8)</f>
+        <v>93274.501481273226</v>
+      </c>
+    </row>
+    <row r="163" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>443697.47899159661</v>
+      </c>
+      <c r="I163">
+        <v>460000.6</v>
+      </c>
+      <c r="J163">
+        <v>462184.9</v>
+      </c>
+      <c r="K163">
+        <v>428676.4705882353</v>
+      </c>
+      <c r="L163">
+        <v>434453.78151260503</v>
+      </c>
+      <c r="N163">
+        <f t="shared" ref="N163:N169" si="16">L163-H163</f>
+        <v>-9243.6974789915839</v>
+      </c>
+      <c r="O163">
+        <f t="shared" ref="O163:O169" si="17">N163*N163</f>
+        <v>85445943.083115369</v>
+      </c>
+    </row>
+    <row r="164" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>360504.2016806723</v>
+      </c>
+      <c r="I164">
+        <v>462078.2</v>
+      </c>
+      <c r="J164">
+        <v>467731.1</v>
+      </c>
+      <c r="K164">
+        <v>439075.63025210082</v>
+      </c>
+      <c r="L164">
+        <v>443697.47899159661</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="16"/>
+        <v>83193.277310924313</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="17"/>
+        <v>6921121389.7323542</v>
+      </c>
+    </row>
+    <row r="165" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>355882.35294117645</v>
+      </c>
+      <c r="I165">
+        <v>288708.2</v>
+      </c>
+      <c r="J165">
+        <v>366666.7</v>
+      </c>
+      <c r="K165">
+        <v>402100.84033613442</v>
+      </c>
+      <c r="L165">
+        <v>360504.2016806723</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="16"/>
+        <v>4621.8487394958502</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="17"/>
+        <v>21361485.770779379</v>
+      </c>
+    </row>
+    <row r="166" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>231092.43697478992</v>
+      </c>
+      <c r="I166">
+        <v>353186.3</v>
+      </c>
+      <c r="J166">
+        <v>360504.2</v>
+      </c>
+      <c r="K166">
+        <v>358193.27731092437</v>
+      </c>
+      <c r="L166">
+        <v>355882.35294117645</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="16"/>
+        <v>124789.91596638653</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="17"/>
+        <v>15572523126.897812</v>
+      </c>
+    </row>
+    <row r="167" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="I167">
+        <v>228396.4</v>
+      </c>
+      <c r="J167">
+        <v>219537.8</v>
+      </c>
+      <c r="K167">
+        <v>293487.39495798317</v>
+      </c>
+      <c r="L167">
+        <v>231092.43697478992</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="16"/>
+        <v>-60084.033613445383</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="17"/>
+        <v>3610091095.2616348</v>
+      </c>
+    </row>
+    <row r="168" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="I168">
+        <v>283369.09999999998</v>
+      </c>
+      <c r="J168">
+        <v>287132.40000000002</v>
+      </c>
+      <c r="K168">
+        <v>261134.45378151262</v>
+      </c>
+      <c r="L168">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>499159.66386554623</v>
+      </c>
+      <c r="I169">
+        <v>287763.20000000001</v>
+      </c>
+      <c r="J169">
+        <v>287581.7</v>
+      </c>
+      <c r="K169">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="L169">
+        <v>291176.4705882353</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="16"/>
+        <v>-207983.19327731093</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="17"/>
+        <v>43257008685.827271</v>
+      </c>
+    </row>
+    <row r="174" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>401036.41456582636</v>
+      </c>
+      <c r="F174">
+        <v>473934.42622950819</v>
+      </c>
+      <c r="G174">
+        <v>396557.37704918033</v>
+      </c>
+      <c r="H174">
+        <v>495130.71895424835</v>
+      </c>
+      <c r="I174">
+        <v>423252.59515570936</v>
+      </c>
+      <c r="J174">
+        <v>313431.37254901958</v>
+      </c>
+      <c r="K174">
+        <v>280336.13445378153</v>
+      </c>
+      <c r="L174">
+        <v>305254.90196078434</v>
+      </c>
+    </row>
+    <row r="175" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>463725.5</v>
+      </c>
+      <c r="F175">
+        <v>500261.4</v>
+      </c>
+      <c r="G175">
+        <v>536797.4</v>
+      </c>
+      <c r="H175">
+        <v>440961.1</v>
+      </c>
+      <c r="I175">
+        <v>475566</v>
+      </c>
+      <c r="J175">
+        <v>451983.9</v>
+      </c>
+      <c r="K175">
+        <v>365374.1</v>
+      </c>
+      <c r="L175">
+        <v>251592.9</v>
+      </c>
+    </row>
+    <row r="176" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>392514.8</v>
+      </c>
+      <c r="F176">
+        <v>421900.1</v>
+      </c>
+      <c r="G176">
+        <v>505205</v>
+      </c>
+      <c r="H176">
+        <v>409720</v>
+      </c>
+      <c r="I176">
+        <v>520494.9</v>
+      </c>
+      <c r="J176">
+        <v>436461.5</v>
+      </c>
+      <c r="K176">
+        <v>312970.2</v>
+      </c>
+      <c r="L176">
+        <v>276611.59999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>406876.75070028013</v>
+      </c>
+      <c r="F177">
+        <v>387408.96358543419</v>
+      </c>
+      <c r="G177">
+        <v>437485.42039766727</v>
+      </c>
+      <c r="H177">
+        <v>435245.90163934429</v>
+      </c>
+      <c r="I177">
+        <v>445844.04800171434</v>
+      </c>
+      <c r="J177">
+        <v>459191.65705497889</v>
+      </c>
+      <c r="K177">
+        <v>368341.98385236447</v>
+      </c>
+      <c r="L177">
+        <v>296883.75350140058</v>
+      </c>
+    </row>
+    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>373781.51260504202</v>
+      </c>
+      <c r="F178">
+        <v>401036.41456582636</v>
+      </c>
+      <c r="G178">
+        <v>473934.42622950819</v>
+      </c>
+      <c r="H178">
+        <v>396557.37704918033</v>
+      </c>
+      <c r="I178">
+        <v>495130.71895424835</v>
+      </c>
+      <c r="J178">
+        <v>423252.59515570936</v>
+      </c>
+      <c r="K178">
+        <v>313431.37254901958</v>
+      </c>
+      <c r="L178">
+        <v>280336.13445378153</v>
+      </c>
+    </row>
+    <row r="181" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>401036.41456582636</v>
+      </c>
+      <c r="I181">
+        <v>463725.5</v>
+      </c>
+      <c r="J181">
+        <v>392514.8</v>
+      </c>
+      <c r="K181">
+        <v>406876.75070028013</v>
+      </c>
+      <c r="L181">
+        <v>373781.51260504202</v>
+      </c>
+      <c r="N181">
+        <f>L181-H181</f>
+        <v>-27254.901960784337</v>
+      </c>
+      <c r="O181">
+        <f>N181*N181</f>
+        <v>742829680.89196587</v>
+      </c>
+      <c r="P181">
+        <f>SQRT(SUM(O181:O188)/8)</f>
+        <v>71330.451626455921</v>
+      </c>
+    </row>
+    <row r="182" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>473934.42622950819</v>
+      </c>
+      <c r="I182">
+        <v>500261.4</v>
+      </c>
+      <c r="J182">
+        <v>421900.1</v>
+      </c>
+      <c r="K182">
+        <v>387408.96358543419</v>
+      </c>
+      <c r="L182">
+        <v>401036.41456582636</v>
+      </c>
+      <c r="N182">
+        <f t="shared" ref="N182:N188" si="18">L182-H182</f>
+        <v>-72898.011663681827</v>
+      </c>
+      <c r="O182">
+        <f t="shared" ref="O182:O188" si="19">N182*N182</f>
+        <v>5314120104.5182915</v>
+      </c>
+    </row>
+    <row r="183" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>396557.37704918033</v>
+      </c>
+      <c r="I183">
+        <v>536797.4</v>
+      </c>
+      <c r="J183">
+        <v>505205</v>
+      </c>
+      <c r="K183">
+        <v>437485.42039766727</v>
+      </c>
+      <c r="L183">
+        <v>473934.42622950819</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="18"/>
+        <v>77377.049180327856</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="19"/>
+        <v>5987207739.8548756</v>
+      </c>
+    </row>
+    <row r="184" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>495130.71895424835</v>
+      </c>
+      <c r="I184">
+        <v>440961.1</v>
+      </c>
+      <c r="J184">
+        <v>409720</v>
+      </c>
+      <c r="K184">
+        <v>435245.90163934429</v>
+      </c>
+      <c r="L184">
+        <v>396557.37704918033</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="18"/>
+        <v>-98573.341905068024</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="19"/>
+        <v>9716703734.3334389</v>
+      </c>
+    </row>
+    <row r="185" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>423252.59515570936</v>
+      </c>
+      <c r="I185">
+        <v>475566</v>
+      </c>
+      <c r="J185">
+        <v>520494.9</v>
+      </c>
+      <c r="K185">
+        <v>445844.04800171434</v>
+      </c>
+      <c r="L185">
+        <v>495130.71895424835</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="18"/>
+        <v>71878.123798538989</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="19"/>
+        <v>5166464680.7980967</v>
+      </c>
+    </row>
+    <row r="186" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>313431.37254901958</v>
+      </c>
+      <c r="I186">
+        <v>451983.9</v>
+      </c>
+      <c r="J186">
+        <v>436461.5</v>
+      </c>
+      <c r="K186">
+        <v>459191.65705497889</v>
+      </c>
+      <c r="L186">
+        <v>423252.59515570936</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="18"/>
+        <v>109821.22260668979</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="19"/>
+        <v>12060700934.828112</v>
+      </c>
+    </row>
+    <row r="187" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>280336.13445378153</v>
+      </c>
+      <c r="I187">
+        <v>365374.1</v>
+      </c>
+      <c r="J187">
+        <v>312970.2</v>
+      </c>
+      <c r="K187">
+        <v>368341.98385236447</v>
+      </c>
+      <c r="L187">
+        <v>313431.37254901958</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="18"/>
+        <v>33095.238095238048</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="19"/>
+        <v>1095294784.5804958</v>
+      </c>
+    </row>
+    <row r="188" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>305254.90196078434</v>
+      </c>
+      <c r="I188">
+        <v>251592.9</v>
+      </c>
+      <c r="J188">
+        <v>276611.59999999998</v>
+      </c>
+      <c r="K188">
+        <v>296883.75350140058</v>
+      </c>
+      <c r="L188">
+        <v>280336.13445378153</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="18"/>
+        <v>-24918.767507002805</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="19"/>
+        <v>620944974.06805885</v>
       </c>
     </row>
   </sheetData>
